--- a/level-2/leetcode-phase-2-3/leetcode-phase-2-3.xlsx
+++ b/level-2/leetcode-phase-2-3/leetcode-phase-2-3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D431E46A-3D41-4D8C-AF07-83E853C4A0FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399AF0F-12F9-437A-8383-45BE6EF97473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="192">
   <si>
     <t>Problem Link</t>
   </si>
@@ -591,111 +591,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-boomerangs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-area-rectangle/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/vowel-spellchecker/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/brick-wall/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/alphabet-board-path/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/valid-sudoku/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-length-of-repeated-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/first-unique-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-authentication-manager/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-subarrays-with-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/bulls-and-cows/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/get-watched-videos-by-your-friends/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/contiguous-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/powerful-integers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/analyze-user-website-visit-pattern/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/repeated-dna-sequences/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/prison-cells-after-n-days/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-distance-in-arrays/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-nice-pairs-in-an-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-ways-where-square-of-number-is-equal-to-product-of-two-numbers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/h-index/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/4sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/array-of-doubled-pairs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/line-reflection/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/making-file-names-unique/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/make-sum-divisible-by-p/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-good-meals/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/avoid-flood-in-the-city/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-word-abbreviation/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/fraction-to-recurring-decimal/</t>
   </si>
 </sst>
 </file>
@@ -1467,27 +1362,27 @@
       <c r="A3" s="19"/>
       <c r="B3" s="15"/>
       <c r="C3" s="7" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H176)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -1496,7 +1391,7 @@
       </c>
       <c r="J3" s="6">
         <f>COUNTA(J4:J984)</f>
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,7 +1490,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
@@ -1616,7 +1511,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
@@ -1637,7 +1532,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="3"/>
@@ -1658,7 +1553,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
@@ -1679,7 +1574,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
@@ -1700,7 +1595,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
@@ -1721,7 +1616,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
@@ -1742,7 +1637,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
@@ -1763,7 +1658,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
@@ -1784,7 +1679,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
@@ -1805,7 +1700,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
@@ -1826,7 +1721,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
@@ -1847,7 +1742,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="3"/>
@@ -1868,7 +1763,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
@@ -1889,7 +1784,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
@@ -1910,7 +1805,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
@@ -1931,7 +1826,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
@@ -1952,7 +1847,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
@@ -1973,7 +1868,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
@@ -1994,7 +1889,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
@@ -2015,7 +1910,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
@@ -2036,7 +1931,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
@@ -2057,7 +1952,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
@@ -2078,7 +1973,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="3"/>
@@ -2099,7 +1994,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="3"/>
@@ -2120,7 +2015,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="3"/>
@@ -2141,7 +2036,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="3"/>
@@ -2162,7 +2057,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
@@ -2183,7 +2078,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
@@ -2204,7 +2099,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
@@ -2225,7 +2120,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="3"/>
@@ -2246,7 +2141,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="3"/>
@@ -2267,7 +2162,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="3"/>
@@ -2288,7 +2183,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="3"/>
@@ -2309,7 +2204,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="3"/>
@@ -2330,7 +2225,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="3"/>
@@ -2351,7 +2246,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="3"/>
@@ -2372,7 +2267,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="3"/>
@@ -2393,7 +2288,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="3"/>
@@ -2414,7 +2309,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C47:G47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="3"/>
@@ -2435,7 +2330,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="3"/>
@@ -2456,7 +2351,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="3"/>
@@ -2477,7 +2372,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C50:G50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="3"/>
@@ -2498,7 +2393,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="3"/>
@@ -2519,7 +2414,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="3"/>
@@ -2540,7 +2435,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="3"/>
@@ -2561,7 +2456,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="3"/>
@@ -2582,7 +2477,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="3"/>
@@ -2603,7 +2498,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="3"/>
@@ -2624,7 +2519,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="3"/>
@@ -2645,7 +2540,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="3"/>
@@ -2666,7 +2561,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="3"/>
@@ -2687,7 +2582,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="3"/>
@@ -2708,7 +2603,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="3"/>
@@ -2729,7 +2624,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="3"/>
@@ -2750,7 +2645,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="3"/>
@@ -2771,7 +2666,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="3"/>
@@ -2792,7 +2687,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="3"/>
@@ -2813,7 +2708,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="3"/>
@@ -2834,7 +2729,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="3"/>
@@ -2855,7 +2750,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="3"/>
@@ -2876,7 +2771,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="3"/>
@@ -2897,7 +2792,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="3"/>
@@ -2918,7 +2813,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="3"/>
@@ -2939,7 +2834,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H106" si="2">SUM(C72:G72)</f>
+        <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="3"/>
@@ -2960,7 +2855,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="3"/>
@@ -2981,7 +2876,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C74:G74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="13" t="s">
@@ -3001,7 +2896,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C75:G75)</f>
         <v>0</v>
       </c>
       <c r="J75" s="13" t="s">
@@ -3021,7 +2916,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
@@ -3041,7 +2936,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
@@ -3061,7 +2956,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
@@ -3081,7 +2976,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
@@ -3101,7 +2996,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
@@ -3121,7 +3016,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -3141,7 +3036,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
@@ -3161,7 +3056,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
@@ -3181,7 +3076,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
@@ -3201,7 +3096,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
@@ -3221,7 +3116,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
@@ -3241,7 +3136,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -3261,7 +3156,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="13" t="s">
@@ -3281,7 +3176,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C89:G89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="13" t="s">
@@ -3301,7 +3196,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -3321,7 +3216,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
       <c r="J91" s="13" t="s">
@@ -3341,7 +3236,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C92:G92)</f>
         <v>0</v>
       </c>
       <c r="J92" s="13" t="s">
@@ -3361,7 +3256,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C93:G93)</f>
         <v>0</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -3381,7 +3276,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C94:G94)</f>
         <v>0</v>
       </c>
       <c r="J94" s="13" t="s">
@@ -3401,7 +3296,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C95:G95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="13" t="s">
@@ -3421,7 +3316,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C96:G96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="13" t="s">
@@ -3441,7 +3336,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C97:G97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -3461,7 +3356,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="13" t="s">
@@ -3481,7 +3376,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C99:G99)</f>
         <v>0</v>
       </c>
       <c r="J99" s="13" t="s">
@@ -3501,7 +3396,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="13" t="s">
@@ -3521,7 +3416,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="13" t="s">
@@ -3541,7 +3436,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C102:G102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="13" t="s">
@@ -3561,7 +3456,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C103:G103)</f>
         <v>0</v>
       </c>
       <c r="J103" s="13" t="s">
@@ -3581,7 +3476,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C104:G104)</f>
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
@@ -3601,7 +3496,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C105:G105)</f>
         <v>0</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -3621,7 +3516,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C106:G106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
@@ -3641,7 +3536,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="8">
-        <f t="shared" ref="H107" si="3">SUM(C107:G107)</f>
+        <f>SUM(C107:G107)</f>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
@@ -3661,7 +3556,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="8">
-        <f t="shared" ref="H108" si="4">SUM(C108:G108)</f>
+        <f>SUM(C108:G108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
@@ -3681,7 +3576,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="8">
-        <f t="shared" ref="H109" si="5">SUM(C109:G109)</f>
+        <f>SUM(C109:G109)</f>
         <v>0</v>
       </c>
       <c r="J109" s="13" t="s">
@@ -3701,7 +3596,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="8">
-        <f t="shared" ref="H110" si="6">SUM(C110:G110)</f>
+        <f>SUM(C110:G110)</f>
         <v>0</v>
       </c>
       <c r="J110" s="13" t="s">
@@ -3721,7 +3616,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="8">
-        <f t="shared" ref="H111" si="7">SUM(C111:G111)</f>
+        <f>SUM(C111:G111)</f>
         <v>0</v>
       </c>
       <c r="J111" s="13" t="s">
@@ -3741,7 +3636,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="8">
-        <f t="shared" ref="H112" si="8">SUM(C112:G112)</f>
+        <f>SUM(C112:G112)</f>
         <v>0</v>
       </c>
       <c r="J112" s="13" t="s">
@@ -3761,7 +3656,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="8">
-        <f t="shared" ref="H113" si="9">SUM(C113:G113)</f>
+        <f>SUM(C113:G113)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13" t="s">
@@ -3781,7 +3676,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="8">
-        <f t="shared" ref="H114" si="10">SUM(C114:G114)</f>
+        <f>SUM(C114:G114)</f>
         <v>0</v>
       </c>
       <c r="J114" s="13" t="s">
@@ -3801,7 +3696,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="8">
-        <f t="shared" ref="H115" si="11">SUM(C115:G115)</f>
+        <f>SUM(C115:G115)</f>
         <v>0</v>
       </c>
       <c r="J115" s="13" t="s">
@@ -3821,7 +3716,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="8">
-        <f t="shared" ref="H116" si="12">SUM(C116:G116)</f>
+        <f>SUM(C116:G116)</f>
         <v>0</v>
       </c>
       <c r="J116" s="13" t="s">
@@ -3841,7 +3736,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="8">
-        <f t="shared" ref="H117" si="13">SUM(C117:G117)</f>
+        <f>SUM(C117:G117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="13" t="s">
@@ -3861,7 +3756,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="8">
-        <f t="shared" ref="H118" si="14">SUM(C118:G118)</f>
+        <f>SUM(C118:G118)</f>
         <v>0</v>
       </c>
       <c r="J118" s="13" t="s">
@@ -3881,7 +3776,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="8">
-        <f t="shared" ref="H119" si="15">SUM(C119:G119)</f>
+        <f>SUM(C119:G119)</f>
         <v>0</v>
       </c>
       <c r="J119" s="13" t="s">
@@ -3901,7 +3796,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="8">
-        <f t="shared" ref="H120" si="16">SUM(C120:G120)</f>
+        <f>SUM(C120:G120)</f>
         <v>0</v>
       </c>
       <c r="J120" s="13" t="s">
@@ -3921,7 +3816,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="8">
-        <f t="shared" ref="H121" si="17">SUM(C121:G121)</f>
+        <f>SUM(C121:G121)</f>
         <v>0</v>
       </c>
       <c r="J121" s="13" t="s">
@@ -3941,7 +3836,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="8">
-        <f t="shared" ref="H122" si="18">SUM(C122:G122)</f>
+        <f>SUM(C122:G122)</f>
         <v>0</v>
       </c>
       <c r="J122" s="13" t="s">
@@ -3961,7 +3856,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="8">
-        <f t="shared" ref="H123" si="19">SUM(C123:G123)</f>
+        <f>SUM(C123:G123)</f>
         <v>0</v>
       </c>
       <c r="J123" s="13" t="s">
@@ -3981,7 +3876,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="8">
-        <f t="shared" ref="H124" si="20">SUM(C124:G124)</f>
+        <f>SUM(C124:G124)</f>
         <v>0</v>
       </c>
       <c r="J124" s="13" t="s">
@@ -4001,7 +3896,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="8">
-        <f t="shared" ref="H125" si="21">SUM(C125:G125)</f>
+        <f>SUM(C125:G125)</f>
         <v>0</v>
       </c>
       <c r="J125" s="13" t="s">
@@ -4021,7 +3916,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="8">
-        <f t="shared" ref="H126" si="22">SUM(C126:G126)</f>
+        <f>SUM(C126:G126)</f>
         <v>0</v>
       </c>
       <c r="J126" s="13" t="s">
@@ -4041,7 +3936,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="8">
-        <f t="shared" ref="H127" si="23">SUM(C127:G127)</f>
+        <f>SUM(C127:G127)</f>
         <v>0</v>
       </c>
       <c r="J127" s="13" t="s">
@@ -4061,7 +3956,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="8">
-        <f t="shared" ref="H128" si="24">SUM(C128:G128)</f>
+        <f>SUM(C128:G128)</f>
         <v>0</v>
       </c>
       <c r="J128" s="13" t="s">
@@ -4081,7 +3976,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="8">
-        <f t="shared" ref="H129" si="25">SUM(C129:G129)</f>
+        <f>SUM(C129:G129)</f>
         <v>0</v>
       </c>
       <c r="J129" s="13" t="s">
@@ -4101,7 +3996,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="8">
-        <f t="shared" ref="H130" si="26">SUM(C130:G130)</f>
+        <f>SUM(C130:G130)</f>
         <v>0</v>
       </c>
       <c r="J130" s="13" t="s">
@@ -4121,7 +4016,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="8">
-        <f t="shared" ref="H131" si="27">SUM(C131:G131)</f>
+        <f>SUM(C131:G131)</f>
         <v>0</v>
       </c>
       <c r="J131" s="13" t="s">
@@ -4141,7 +4036,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="8">
-        <f t="shared" ref="H132" si="28">SUM(C132:G132)</f>
+        <f>SUM(C132:G132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="13" t="s">
@@ -4161,7 +4056,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="8">
-        <f t="shared" ref="H133" si="29">SUM(C133:G133)</f>
+        <f>SUM(C133:G133)</f>
         <v>0</v>
       </c>
       <c r="J133" s="13" t="s">
@@ -4181,7 +4076,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="8">
-        <f t="shared" ref="H134" si="30">SUM(C134:G134)</f>
+        <f>SUM(C134:G134)</f>
         <v>0</v>
       </c>
       <c r="J134" s="13" t="s">
@@ -4201,7 +4096,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="8">
-        <f t="shared" ref="H135" si="31">SUM(C135:G135)</f>
+        <f>SUM(C135:G135)</f>
         <v>0</v>
       </c>
       <c r="J135" s="13" t="s">
@@ -4221,7 +4116,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="8">
-        <f t="shared" ref="H136" si="32">SUM(C136:G136)</f>
+        <f>SUM(C136:G136)</f>
         <v>0</v>
       </c>
       <c r="J136" s="13" t="s">
@@ -4241,7 +4136,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="8">
-        <f t="shared" ref="H137" si="33">SUM(C137:G137)</f>
+        <f>SUM(C137:G137)</f>
         <v>0</v>
       </c>
       <c r="J137" s="13" t="s">
@@ -4261,7 +4156,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="8">
-        <f t="shared" ref="H138" si="34">SUM(C138:G138)</f>
+        <f>SUM(C138:G138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="13" t="s">
@@ -4281,7 +4176,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="8">
-        <f t="shared" ref="H139" si="35">SUM(C139:G139)</f>
+        <f>SUM(C139:G139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="13" t="s">
@@ -4301,7 +4196,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="8">
-        <f t="shared" ref="H140" si="36">SUM(C140:G140)</f>
+        <f>SUM(C140:G140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="13" t="s">
@@ -4321,7 +4216,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="8">
-        <f t="shared" ref="H141" si="37">SUM(C141:G141)</f>
+        <f>SUM(C141:G141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="13" t="s">
@@ -4341,7 +4236,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="8">
-        <f t="shared" ref="H142" si="38">SUM(C142:G142)</f>
+        <f>SUM(C142:G142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="13" t="s">
@@ -4361,7 +4256,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="8">
-        <f t="shared" ref="H143" si="39">SUM(C143:G143)</f>
+        <f>SUM(C143:G143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="13" t="s">
@@ -4381,7 +4276,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="8">
-        <f t="shared" ref="H144" si="40">SUM(C144:G144)</f>
+        <f>SUM(C144:G144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="13" t="s">
@@ -4401,7 +4296,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="8">
-        <f t="shared" ref="H145" si="41">SUM(C145:G145)</f>
+        <f>SUM(C145:G145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="13" t="s">
@@ -4421,7 +4316,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="8">
-        <f t="shared" ref="H146" si="42">SUM(C146:G146)</f>
+        <f>SUM(C146:G146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="13" t="s">
@@ -4441,7 +4336,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="8">
-        <f t="shared" ref="H147" si="43">SUM(C147:G147)</f>
+        <f>SUM(C147:G147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="13" t="s">
@@ -4461,7 +4356,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="8">
-        <f t="shared" ref="H148:H211" si="44">SUM(C148:G148)</f>
+        <f>SUM(C148:G148)</f>
         <v>0</v>
       </c>
       <c r="J148" s="13" t="s">
@@ -4481,7 +4376,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C149:G149)</f>
         <v>0</v>
       </c>
       <c r="J149" s="13" t="s">
@@ -4501,7 +4396,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C150:G150)</f>
         <v>0</v>
       </c>
       <c r="J150" s="13" t="s">
@@ -4521,7 +4416,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C151:G151)</f>
         <v>0</v>
       </c>
       <c r="J151" s="13" t="s">
@@ -4541,7 +4436,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C152:G152)</f>
         <v>0</v>
       </c>
       <c r="J152" s="13" t="s">
@@ -4561,7 +4456,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C153:G153)</f>
         <v>0</v>
       </c>
       <c r="J153" s="13" t="s">
@@ -4581,7 +4476,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C154:G154)</f>
         <v>0</v>
       </c>
       <c r="J154" s="13" t="s">
@@ -4601,7 +4496,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C155:G155)</f>
         <v>0</v>
       </c>
       <c r="J155" s="13" t="s">
@@ -4621,7 +4516,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C156:G156)</f>
         <v>0</v>
       </c>
       <c r="J156" s="13" t="s">
@@ -4641,7 +4536,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C157:G157)</f>
         <v>0</v>
       </c>
       <c r="J157" s="13" t="s">
@@ -4661,7 +4556,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C158:G158)</f>
         <v>0</v>
       </c>
       <c r="J158" s="13" t="s">
@@ -4681,7 +4576,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C159:G159)</f>
         <v>0</v>
       </c>
       <c r="J159" s="13" t="s">
@@ -4701,7 +4596,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C160:G160)</f>
         <v>0</v>
       </c>
       <c r="J160" s="13" t="s">
@@ -4721,7 +4616,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C161:G161)</f>
         <v>0</v>
       </c>
       <c r="J161" s="13" t="s">
@@ -4741,7 +4636,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C162:G162)</f>
         <v>0</v>
       </c>
       <c r="J162" s="13" t="s">
@@ -4761,7 +4656,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C163:G163)</f>
         <v>0</v>
       </c>
       <c r="J163" s="13" t="s">
@@ -4781,7 +4676,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C164:G164)</f>
         <v>0</v>
       </c>
       <c r="J164" s="13" t="s">
@@ -4801,7 +4696,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C165:G165)</f>
         <v>0</v>
       </c>
       <c r="J165" s="13" t="s">
@@ -4821,7 +4716,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C166:G166)</f>
         <v>0</v>
       </c>
       <c r="J166" s="13" t="s">
@@ -4841,7 +4736,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C167:G167)</f>
         <v>0</v>
       </c>
       <c r="J167" s="13" t="s">
@@ -4861,7 +4756,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C168:G168)</f>
         <v>0</v>
       </c>
       <c r="J168" s="13" t="s">
@@ -4881,7 +4776,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C169:G169)</f>
         <v>0</v>
       </c>
       <c r="J169" s="13" t="s">
@@ -4901,7 +4796,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C170:G170)</f>
         <v>0</v>
       </c>
       <c r="J170" s="13" t="s">
@@ -4921,7 +4816,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C171:G171)</f>
         <v>0</v>
       </c>
       <c r="J171" s="13" t="s">
@@ -4941,7 +4836,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C172:G172)</f>
         <v>0</v>
       </c>
       <c r="J172" s="13" t="s">
@@ -4961,7 +4856,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C173:G173)</f>
         <v>0</v>
       </c>
       <c r="J173" s="13" t="s">
@@ -4981,7 +4876,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C174:G174)</f>
         <v>0</v>
       </c>
       <c r="J174" s="13" t="s">
@@ -5001,7 +4896,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C175:G175)</f>
         <v>0</v>
       </c>
       <c r="J175" s="13" t="s">
@@ -5021,7 +4916,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C176:G176)</f>
         <v>0</v>
       </c>
       <c r="J176" s="13" t="s">
@@ -5041,725 +4936,25 @@
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C177:G177)</f>
         <v>0</v>
       </c>
       <c r="J177" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J181" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J183" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J187" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J188" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J189" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J190" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J192" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J193" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J194" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J195" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J198" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J199" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J200" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J201" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J203" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J204" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J205" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J206" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J210" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J211" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="8">
-        <f t="shared" ref="H212" si="45">SUM(C212:G212)</f>
-        <v>0</v>
-      </c>
-      <c r="J212" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H213" s="8"/>
       <c r="J213" s="13"/>
     </row>
-    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H214" s="8"/>
       <c r="J214" s="13"/>
     </row>
-    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J215" s="13"/>
     </row>
-    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J216" s="13"/>
     </row>
   </sheetData>
